--- a/2.3.1/sample.xlsx
+++ b/2.3.1/sample.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="460" windowWidth="16860" windowHeight="10900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="540" yWindow="3060" windowWidth="16860" windowHeight="10900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
